--- a/toBeUploaded.xlsx
+++ b/toBeUploaded.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>companyName</t>
   </si>
@@ -36,18 +36,12 @@
     <t>dateOfPrice</t>
   </si>
   <si>
-    <t>abcd1111</t>
-  </si>
-  <si>
     <t>bse</t>
   </si>
   <si>
     <t>2020-12-16T09:13:00.0000000</t>
   </si>
   <si>
-    <t>abcd1</t>
-  </si>
-  <si>
     <t>nse</t>
   </si>
   <si>
@@ -55,6 +49,27 @@
   </si>
   <si>
     <t>2020-12-18T09:00:00.0000000</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>abcd2222</t>
+  </si>
+  <si>
+    <t>abcd2</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
 </sst>
 </file>
@@ -372,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +402,7 @@
     <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,56 +418,88 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>55</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4">
         <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/toBeUploaded.xlsx
+++ b/toBeUploaded.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>companyName</t>
   </si>
@@ -54,22 +54,58 @@
     <t>sector</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>abcd2222</t>
-  </si>
-  <si>
-    <t>abcd2</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>abcd00000</t>
+  </si>
+  <si>
+    <t>abcd00001</t>
+  </si>
+  <si>
+    <t>abcd00002</t>
+  </si>
+  <si>
+    <t>abcd00003</t>
+  </si>
+  <si>
+    <t>abcd00004</t>
+  </si>
+  <si>
+    <t>abcd00005</t>
+  </si>
+  <si>
+    <t>abcd00006</t>
+  </si>
+  <si>
+    <t>abcd00007</t>
+  </si>
+  <si>
+    <t>abcd000</t>
+  </si>
+  <si>
+    <t>abcd001</t>
+  </si>
+  <si>
+    <t>abcd002</t>
+  </si>
+  <si>
+    <t>abcd003</t>
+  </si>
+  <si>
+    <t>abcd004</t>
+  </si>
+  <si>
+    <t>abcd005</t>
+  </si>
+  <si>
+    <t>abcd006</t>
+  </si>
+  <si>
+    <t>abcd007</t>
   </si>
 </sst>
 </file>
@@ -387,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,6 +436,7 @@
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -424,22 +461,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -447,13 +484,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -464,42 +501,122 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
